--- a/medicine/Enfance/Pour_faire_une_chanson_(chanson)/Pour_faire_une_chanson_(chanson).xlsx
+++ b/medicine/Enfance/Pour_faire_une_chanson_(chanson)/Pour_faire_une_chanson_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour faire une chanson est une chanson de l’animatrice et chanteuse française Dorothée, parue sur l’album du même titre.
 Cette chanson fait l’objet d’une comédie musicale, jouée lors du podium d’été RMC en 1983.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Parodie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'humoriste Laura Laune a chanté la parodie « Pour faire un attentat »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'humoriste Laura Laune a chanté la parodie « Pour faire un attentat ».
 </t>
         </is>
       </c>
